--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knedl\source\repos\NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1672B7D-DFAF-4DBA-81B4-D042F14180CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0ADAF7-05B7-4842-B740-1F18EB747B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{06A4CD6F-050B-412A-879F-D671C597B8A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Model</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Finetuned Recall</t>
+  </si>
+  <si>
+    <t>geckos/deberta-base-fine-tuned-ner</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F18874-E462-403C-943F-722828FAEF98}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,7 +506,31 @@
         <v>0.73</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.54</v>
+      </c>
+      <c r="C4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.77</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knedl\source\repos\NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0ADAF7-05B7-4842-B740-1F18EB747B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFC9D7B-0E88-4836-9EED-F6FC555A4481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{06A4CD6F-050B-412A-879F-D671C597B8A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Model</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>geckos/deberta-base-fine-tuned-ner</t>
+  </si>
+  <si>
+    <t>dslim/bert-base-NER</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F18874-E462-403C-943F-722828FAEF98}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,6 +485,18 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -490,19 +505,19 @@
       <c r="B3" s="1">
         <v>0.48</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.49</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.72</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.75</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.73</v>
       </c>
     </row>
@@ -510,23 +525,46 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.54</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.77</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.8</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knedl\source\repos\NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFC9D7B-0E88-4836-9EED-F6FC555A4481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C94D56-8D12-42C3-87DE-1C9A09261457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{06A4CD6F-050B-412A-879F-D671C597B8A6}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,9 +494,15 @@
       <c r="D2" s="1">
         <v>0.39</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knedl\source\repos\NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C94D56-8D12-42C3-87DE-1C9A09261457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B3F90-A5E7-45D7-82AE-4EB668129A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{06A4CD6F-050B-412A-879F-D671C597B8A6}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
